--- a/quotations/management/commands/oblupricelist.xlsx
+++ b/quotations/management/commands/oblupricelist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9d1008cda5071194/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhij\PycharmProjects\ObluMerge\quotations\management\commands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="11_F25DC773A252ABDACC1048FD09DE4A305BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F05B9B8F-9CCA-4CC1-87AA-528867482770}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392AAA5C-BEA5-4839-A763-C7BA2E5B71E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,15 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="205">
   <si>
     <t>Product Category</t>
   </si>
   <si>
     <t>Product Name</t>
-  </si>
-  <si>
-    <t>Price(Without Tax)</t>
   </si>
   <si>
     <t>Tax</t>
@@ -852,6 +849,12 @@
   </si>
   <si>
     <t>nFEP sheet for Saturn (5 pcs)</t>
+  </si>
+  <si>
+    <t>FormLabs</t>
+  </si>
+  <si>
+    <t>Price</t>
   </si>
 </sst>
 </file>
@@ -1055,7 +1058,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1095,7 +1098,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1111,7 +1114,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1136,11 +1139,11 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1183,7 +1186,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1506,7 +1509,7 @@
   <dimension ref="A1:F184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H182" sqref="H182"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1519,24 +1522,24 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>7</v>
       </c>
       <c r="C2" s="7">
         <v>191</v>
@@ -1552,9 +1555,11 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5"/>
+      <c r="A3" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="B3" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="7">
         <v>149</v>
@@ -1570,9 +1575,11 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="5"/>
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="B4" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="7">
         <v>334</v>
@@ -1588,9 +1595,11 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5"/>
+      <c r="A5" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="B5" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="7">
         <v>382</v>
@@ -1606,9 +1615,11 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="5"/>
+      <c r="A6" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="B6" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="7">
         <v>390</v>
@@ -1625,10 +1636,10 @@
     </row>
     <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="7">
         <v>335</v>
@@ -1644,9 +1655,11 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5"/>
+      <c r="A8" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="B8" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="7">
         <v>390</v>
@@ -1663,10 +1676,10 @@
     </row>
     <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>13</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>14</v>
       </c>
       <c r="C9" s="3">
         <v>181</v>
@@ -1683,10 +1696,10 @@
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="15">
         <v>200</v>
@@ -1703,10 +1716,10 @@
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="15">
         <v>220</v>
@@ -1723,10 +1736,10 @@
     </row>
     <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>17</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>18</v>
       </c>
       <c r="C12" s="15">
         <v>86</v>
@@ -1743,10 +1756,10 @@
     </row>
     <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="15">
         <v>86</v>
@@ -1763,10 +1776,10 @@
     </row>
     <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="15">
         <v>96</v>
@@ -1783,10 +1796,10 @@
     </row>
     <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="15">
         <v>115</v>
@@ -1803,10 +1816,10 @@
     </row>
     <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="14" t="s">
         <v>22</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>23</v>
       </c>
       <c r="C16" s="15">
         <v>81</v>
@@ -1823,10 +1836,10 @@
     </row>
     <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="15">
         <v>115</v>
@@ -1843,10 +1856,10 @@
     </row>
     <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="15">
         <v>262</v>
@@ -1863,10 +1876,10 @@
     </row>
     <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" s="15">
         <v>381</v>
@@ -1883,10 +1896,10 @@
     </row>
     <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" s="15">
         <v>486</v>
@@ -1903,10 +1916,10 @@
     </row>
     <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" s="15">
         <v>705</v>
@@ -1923,10 +1936,10 @@
     </row>
     <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" s="15">
         <v>167</v>
@@ -1943,10 +1956,10 @@
     </row>
     <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C23" s="15">
         <v>134</v>
@@ -1963,10 +1976,10 @@
     </row>
     <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" s="15">
         <v>172</v>
@@ -1983,10 +1996,10 @@
     </row>
     <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25" s="15">
         <v>181</v>
@@ -2003,10 +2016,10 @@
     </row>
     <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26" s="15">
         <v>239</v>
@@ -2023,10 +2036,10 @@
     </row>
     <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" s="15">
         <v>296</v>
@@ -2043,10 +2056,10 @@
     </row>
     <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C28" s="15">
         <v>191</v>
@@ -2063,10 +2076,10 @@
     </row>
     <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C29" s="15">
         <v>296</v>
@@ -2083,10 +2096,10 @@
     </row>
     <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C30" s="15">
         <v>430</v>
@@ -2103,10 +2116,10 @@
     </row>
     <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" s="15">
         <v>362</v>
@@ -2123,10 +2136,10 @@
     </row>
     <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C32" s="15">
         <v>438</v>
@@ -2143,10 +2156,10 @@
     </row>
     <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C33" s="15">
         <v>495</v>
@@ -2163,10 +2176,10 @@
     </row>
     <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C34" s="15">
         <v>610</v>
@@ -2183,10 +2196,10 @@
     </row>
     <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C35" s="15">
         <v>705</v>
@@ -2203,10 +2216,10 @@
     </row>
     <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="19" t="s">
         <v>43</v>
-      </c>
-      <c r="B36" s="19" t="s">
-        <v>44</v>
       </c>
       <c r="C36" s="20">
         <v>2000</v>
@@ -2223,10 +2236,10 @@
     </row>
     <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="15">
         <v>12382</v>
@@ -2243,10 +2256,10 @@
     </row>
     <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C38" s="15">
         <v>2574</v>
@@ -2263,10 +2276,10 @@
     </row>
     <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C39" s="15">
         <v>2953</v>
@@ -2283,10 +2296,10 @@
     </row>
     <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C40" s="15">
         <v>3143</v>
@@ -2303,10 +2316,10 @@
     </row>
     <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C41" s="15">
         <v>3334</v>
@@ -2323,10 +2336,10 @@
     </row>
     <row r="42" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C42" s="15">
         <v>3620</v>
@@ -2343,10 +2356,10 @@
     </row>
     <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C43" s="15">
         <v>2381</v>
@@ -2363,10 +2376,10 @@
     </row>
     <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C44" s="15">
         <v>2858</v>
@@ -2383,10 +2396,10 @@
     </row>
     <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C45" s="15">
         <v>3048</v>
@@ -2403,10 +2416,10 @@
     </row>
     <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C46" s="15">
         <v>3239</v>
@@ -2423,10 +2436,10 @@
     </row>
     <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C47" s="15">
         <v>3524</v>
@@ -2443,10 +2456,10 @@
     </row>
     <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C48" s="15">
         <v>810</v>
@@ -2463,10 +2476,10 @@
     </row>
     <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C49" s="15">
         <v>972</v>
@@ -2483,10 +2496,10 @@
     </row>
     <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C50" s="15">
         <v>1096</v>
@@ -2503,10 +2516,10 @@
     </row>
     <row r="51" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C51" s="15">
         <v>5334</v>
@@ -2523,10 +2536,10 @@
     </row>
     <row r="52" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C52" s="15">
         <v>334</v>
@@ -2543,10 +2556,10 @@
     </row>
     <row r="53" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C53" s="15">
         <v>305</v>
@@ -2563,10 +2576,10 @@
     </row>
     <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C54" s="15">
         <v>486</v>
@@ -2583,10 +2596,10 @@
     </row>
     <row r="55" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C55" s="15">
         <v>486</v>
@@ -2603,10 +2616,10 @@
     </row>
     <row r="56" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C56" s="15">
         <v>14763</v>
@@ -2623,10 +2636,10 @@
     </row>
     <row r="57" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C57" s="15">
         <v>5715</v>
@@ -2643,10 +2656,10 @@
     </row>
     <row r="58" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C58" s="15">
         <v>3840</v>
@@ -2663,10 +2676,10 @@
     </row>
     <row r="59" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C59" s="15">
         <v>763</v>
@@ -2683,10 +2696,10 @@
     </row>
     <row r="60" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C60" s="15">
         <v>1865</v>
@@ -2703,10 +2716,10 @@
     </row>
     <row r="61" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C61" s="15">
         <v>7412</v>
@@ -2723,10 +2736,10 @@
     </row>
     <row r="62" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C62" s="15">
         <v>4733</v>
@@ -2743,10 +2756,10 @@
     </row>
     <row r="63" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B63" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C63" s="15">
         <v>7882</v>
@@ -2763,10 +2776,10 @@
     </row>
     <row r="64" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B64" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C64" s="15">
         <v>2289</v>
@@ -2783,10 +2796,10 @@
     </row>
     <row r="65" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C65" s="15">
         <v>7458</v>
@@ -2803,10 +2816,10 @@
     </row>
     <row r="66" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C66" s="15">
         <v>4831</v>
@@ -2823,10 +2836,10 @@
     </row>
     <row r="67" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B67" s="25" t="s">
         <v>74</v>
-      </c>
-      <c r="B67" s="25" t="s">
-        <v>75</v>
       </c>
       <c r="C67" s="26">
         <v>428580</v>
@@ -2843,10 +2856,10 @@
     </row>
     <row r="68" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B68" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C68" s="29">
         <v>142860</v>
@@ -2863,10 +2876,10 @@
     </row>
     <row r="69" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B69" s="31" t="s">
         <v>77</v>
-      </c>
-      <c r="B69" s="31" t="s">
-        <v>78</v>
       </c>
       <c r="C69" s="29">
         <v>523820</v>
@@ -2883,10 +2896,10 @@
     </row>
     <row r="70" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B70" s="31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C70" s="29">
         <v>1904800</v>
@@ -2903,10 +2916,10 @@
     </row>
     <row r="71" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B71" s="31" t="s">
         <v>80</v>
-      </c>
-      <c r="B71" s="31" t="s">
-        <v>81</v>
       </c>
       <c r="C71" s="20">
         <v>2034000</v>
@@ -2923,10 +2936,10 @@
     </row>
     <row r="72" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B72" s="34" t="s">
         <v>82</v>
-      </c>
-      <c r="B72" s="34" t="s">
-        <v>83</v>
       </c>
       <c r="C72" s="2">
         <v>888435.5</v>
@@ -2943,10 +2956,10 @@
     </row>
     <row r="73" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B73" s="36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C73" s="37">
         <v>1562575</v>
@@ -2963,10 +2976,10 @@
     </row>
     <row r="74" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B74" s="36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C74" s="37">
         <v>133935</v>
@@ -2983,10 +2996,10 @@
     </row>
     <row r="75" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B75" s="36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C75" s="37">
         <v>669675</v>
@@ -3003,10 +3016,10 @@
     </row>
     <row r="76" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B76" s="36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C76" s="37">
         <v>116077</v>
@@ -3023,10 +3036,10 @@
     </row>
     <row r="77" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B77" s="36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C77" s="37">
         <v>56252.7</v>
@@ -3043,10 +3056,10 @@
     </row>
     <row r="78" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B78" s="38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C78" s="37">
         <v>48216.6</v>
@@ -3063,10 +3076,10 @@
     </row>
     <row r="79" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79" s="36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C79" s="37">
         <v>40180.5</v>
@@ -3083,10 +3096,10 @@
     </row>
     <row r="80" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B80" s="38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C80" s="37">
         <v>508500</v>
@@ -3103,10 +3116,10 @@
     </row>
     <row r="81" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B81" s="36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C81" s="37">
         <v>423750</v>
@@ -3123,10 +3136,10 @@
     </row>
     <row r="82" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B82" s="36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C82" s="37">
         <v>254250</v>
@@ -3143,10 +3156,10 @@
     </row>
     <row r="83" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" s="36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C83" s="37">
         <v>152550</v>
@@ -3163,10 +3176,10 @@
     </row>
     <row r="84" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B84" s="36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C84" s="37">
         <v>550875</v>
@@ -3183,10 +3196,10 @@
     </row>
     <row r="85" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B85" s="36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C85" s="37">
         <v>678000</v>
@@ -3203,10 +3216,10 @@
     </row>
     <row r="86" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B86" s="36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C86" s="37">
         <v>1017000</v>
@@ -3223,10 +3236,10 @@
     </row>
     <row r="87" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="B87" s="34" t="s">
         <v>98</v>
-      </c>
-      <c r="B87" s="34" t="s">
-        <v>99</v>
       </c>
       <c r="C87" s="39">
         <v>550875</v>
@@ -3243,10 +3256,10 @@
     </row>
     <row r="88" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B88" s="36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C88" s="41">
         <v>211875</v>
@@ -3263,10 +3276,10 @@
     </row>
     <row r="89" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B89" s="36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C89" s="41">
         <v>211875</v>
@@ -3283,10 +3296,10 @@
     </row>
     <row r="90" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B90" s="36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C90" s="41">
         <v>228825</v>
@@ -3303,10 +3316,10 @@
     </row>
     <row r="91" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B91" s="36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C91" s="41">
         <v>211875</v>
@@ -3323,10 +3336,10 @@
     </row>
     <row r="92" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B92" s="36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C92" s="41">
         <v>211875</v>
@@ -3343,10 +3356,10 @@
     </row>
     <row r="93" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B93" s="36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C93" s="30">
         <v>72038</v>
@@ -3363,10 +3376,10 @@
     </row>
     <row r="94" spans="1:6" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="B94" s="45" t="s">
         <v>106</v>
-      </c>
-      <c r="B94" s="45" t="s">
-        <v>107</v>
       </c>
       <c r="C94" s="46">
         <v>211875</v>
@@ -3383,10 +3396,10 @@
     </row>
     <row r="95" spans="1:6" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B95" s="47" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C95" s="48">
         <v>296625</v>
@@ -3403,10 +3416,10 @@
     </row>
     <row r="96" spans="1:6" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B96" s="47" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C96" s="48">
         <v>381375</v>
@@ -3423,10 +3436,10 @@
     </row>
     <row r="97" spans="1:6" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B97" s="47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C97" s="48">
         <v>610200</v>
@@ -3443,10 +3456,10 @@
     </row>
     <row r="98" spans="1:6" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B98" s="47" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C98" s="48">
         <v>84750</v>
@@ -3463,10 +3476,10 @@
     </row>
     <row r="99" spans="1:6" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B99" s="47" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C99" s="48">
         <v>65257.5</v>
@@ -3483,10 +3496,10 @@
     </row>
     <row r="100" spans="1:6" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B100" s="47" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C100" s="48">
         <v>29662.5</v>
@@ -3503,10 +3516,10 @@
     </row>
     <row r="101" spans="1:6" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B101" s="47" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C101" s="48">
         <v>88987.5</v>
@@ -3523,10 +3536,10 @@
     </row>
     <row r="102" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B102" s="47" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C102" s="49"/>
       <c r="D102" s="50"/>
@@ -3537,10 +3550,10 @@
     </row>
     <row r="103" spans="1:6" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B103" s="47" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C103" s="48">
         <v>46612.5</v>
@@ -3557,10 +3570,10 @@
     </row>
     <row r="104" spans="1:6" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B104" s="47" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C104" s="48">
         <v>65257.5</v>
@@ -3577,10 +3590,10 @@
     </row>
     <row r="105" spans="1:6" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B105" s="47" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C105" s="48">
         <v>83055</v>
@@ -3597,10 +3610,10 @@
     </row>
     <row r="106" spans="1:6" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B106" s="47" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C106" s="48">
         <v>139837.5</v>
@@ -3617,10 +3630,10 @@
     </row>
     <row r="107" spans="1:6" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B107" s="47" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C107" s="48">
         <v>13136.25</v>
@@ -3637,10 +3650,10 @@
     </row>
     <row r="108" spans="1:6" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B108" s="47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C108" s="48">
         <v>12966.75</v>
@@ -3657,10 +3670,10 @@
     </row>
     <row r="109" spans="1:6" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B109" s="47" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C109" s="48">
         <v>6780</v>
@@ -3677,10 +3690,10 @@
     </row>
     <row r="110" spans="1:6" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="35" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B110" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C110" s="48">
         <v>419512.5</v>
@@ -3697,10 +3710,10 @@
     </row>
     <row r="111" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="B111" s="34" t="s">
         <v>124</v>
-      </c>
-      <c r="B111" s="34" t="s">
-        <v>125</v>
       </c>
       <c r="C111" s="52">
         <v>33900</v>
@@ -3717,10 +3730,10 @@
     </row>
     <row r="112" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B112" s="36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C112" s="53">
         <v>38137.5</v>
@@ -3737,10 +3750,10 @@
     </row>
     <row r="113" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B113" s="36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C113" s="53">
         <v>114412.5</v>
@@ -3757,10 +3770,10 @@
     </row>
     <row r="114" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B114" s="36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C114" s="53">
         <v>169500</v>
@@ -3777,10 +3790,10 @@
     </row>
     <row r="115" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B115" s="36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C115" s="53">
         <v>21187.5</v>
@@ -3797,10 +3810,10 @@
     </row>
     <row r="116" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B116" s="36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C116" s="53">
         <v>21187.5</v>
@@ -3817,10 +3830,10 @@
     </row>
     <row r="117" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B117" s="36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C117" s="53">
         <v>7203.75</v>
@@ -3837,10 +3850,10 @@
     </row>
     <row r="118" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B118" s="36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C118" s="53">
         <v>3390</v>
@@ -3857,10 +3870,10 @@
     </row>
     <row r="119" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B119" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C119" s="53">
         <v>2542.5</v>
@@ -3877,10 +3890,10 @@
     </row>
     <row r="120" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B120" s="36" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C120" s="53">
         <v>1491.6</v>
@@ -3897,10 +3910,10 @@
     </row>
     <row r="121" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B121" s="36" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C121" s="53">
         <v>16950</v>
@@ -3917,10 +3930,10 @@
     </row>
     <row r="122" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B122" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C122" s="53">
         <v>1864.5</v>
@@ -3937,10 +3950,10 @@
     </row>
     <row r="123" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B123" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C123" s="53">
         <v>5339.25</v>
@@ -3957,10 +3970,10 @@
     </row>
     <row r="124" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="B124" s="34" t="s">
         <v>138</v>
-      </c>
-      <c r="B124" s="34" t="s">
-        <v>139</v>
       </c>
       <c r="C124" s="10">
         <v>5508.75</v>
@@ -3977,10 +3990,10 @@
     </row>
     <row r="125" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B125" s="36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C125" s="14">
         <v>8475</v>
@@ -3997,10 +4010,10 @@
     </row>
     <row r="126" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B126" s="36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C126" s="14">
         <v>13983.75</v>
@@ -4017,10 +4030,10 @@
     </row>
     <row r="127" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B127" s="36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C127" s="14">
         <v>10170</v>
@@ -4037,10 +4050,10 @@
     </row>
     <row r="128" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B128" s="36" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C128" s="14">
         <v>25425</v>
@@ -4057,10 +4070,10 @@
     </row>
     <row r="129" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B129" s="36" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C129" s="14">
         <v>1525.5</v>
@@ -4077,10 +4090,10 @@
     </row>
     <row r="130" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B130" s="36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C130" s="14">
         <v>12712.5</v>
@@ -4097,10 +4110,10 @@
     </row>
     <row r="131" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B131" s="36" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C131" s="14">
         <v>8475</v>
@@ -4117,10 +4130,10 @@
     </row>
     <row r="132" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="B132" s="55" t="s">
         <v>147</v>
-      </c>
-      <c r="B132" s="55" t="s">
-        <v>148</v>
       </c>
       <c r="C132" s="52">
         <v>762750</v>
@@ -4137,10 +4150,10 @@
     </row>
     <row r="133" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="56" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B133" s="57" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C133" s="53">
         <v>1101750</v>
@@ -4157,10 +4170,10 @@
     </row>
     <row r="134" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="56" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B134" s="57" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C134" s="53">
         <v>2118750</v>
@@ -4177,10 +4190,10 @@
     </row>
     <row r="135" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="56" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B135" s="57" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C135" s="53">
         <v>10170</v>
@@ -4197,10 +4210,10 @@
     </row>
     <row r="136" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="56" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B136" s="57" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C136" s="53">
         <v>12713</v>
@@ -4217,10 +4230,10 @@
     </row>
     <row r="137" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="56" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B137" s="57" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C137" s="53">
         <v>16950</v>
@@ -4237,10 +4250,10 @@
     </row>
     <row r="138" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="56" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B138" s="57" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C138" s="53">
         <v>23720</v>
@@ -4256,9 +4269,11 @@
       </c>
     </row>
     <row r="139" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="33"/>
+      <c r="A139" s="33" t="s">
+        <v>203</v>
+      </c>
       <c r="B139" s="55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C139" s="40">
         <v>635625</v>
@@ -4274,9 +4289,11 @@
       </c>
     </row>
     <row r="140" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="35"/>
+      <c r="A140" s="33" t="s">
+        <v>203</v>
+      </c>
       <c r="B140" s="57" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C140" s="42">
         <v>1398375</v>
@@ -4292,9 +4309,11 @@
       </c>
     </row>
     <row r="141" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="35"/>
+      <c r="A141" s="33" t="s">
+        <v>203</v>
+      </c>
       <c r="B141" s="57" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C141" s="42">
         <v>97463</v>
@@ -4310,9 +4329,11 @@
       </c>
     </row>
     <row r="142" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="35"/>
+      <c r="A142" s="33" t="s">
+        <v>203</v>
+      </c>
       <c r="B142" s="57" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C142" s="42">
         <v>118650</v>
@@ -4328,9 +4349,11 @@
       </c>
     </row>
     <row r="143" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="35"/>
+      <c r="A143" s="33" t="s">
+        <v>203</v>
+      </c>
       <c r="B143" s="57" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C143" s="42">
         <v>13560</v>
@@ -4346,9 +4369,11 @@
       </c>
     </row>
     <row r="144" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="35"/>
+      <c r="A144" s="33" t="s">
+        <v>203</v>
+      </c>
       <c r="B144" s="57" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C144" s="42">
         <v>44070</v>
@@ -4364,9 +4389,11 @@
       </c>
     </row>
     <row r="145" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="35"/>
+      <c r="A145" s="33" t="s">
+        <v>203</v>
+      </c>
       <c r="B145" s="57" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C145" s="42">
         <v>13560</v>
@@ -4382,9 +4409,11 @@
       </c>
     </row>
     <row r="146" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="35"/>
+      <c r="A146" s="33" t="s">
+        <v>203</v>
+      </c>
       <c r="B146" s="57" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C146" s="42">
         <v>15255</v>
@@ -4400,9 +4429,11 @@
       </c>
     </row>
     <row r="147" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="35"/>
+      <c r="A147" s="33" t="s">
+        <v>203</v>
+      </c>
       <c r="B147" s="57" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C147" s="42">
         <v>27120</v>
@@ -4418,9 +4449,11 @@
       </c>
     </row>
     <row r="148" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="35"/>
+      <c r="A148" s="33" t="s">
+        <v>203</v>
+      </c>
       <c r="B148" s="57" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C148" s="42">
         <v>37290</v>
@@ -4436,9 +4469,11 @@
       </c>
     </row>
     <row r="149" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="35"/>
+      <c r="A149" s="33" t="s">
+        <v>203</v>
+      </c>
       <c r="B149" s="57" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C149" s="42">
         <v>44918</v>
@@ -4454,9 +4489,11 @@
       </c>
     </row>
     <row r="150" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="35"/>
+      <c r="A150" s="33" t="s">
+        <v>203</v>
+      </c>
       <c r="B150" s="57" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C150" s="42">
         <v>32205</v>
@@ -4472,9 +4509,11 @@
       </c>
     </row>
     <row r="151" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="35"/>
+      <c r="A151" s="33" t="s">
+        <v>203</v>
+      </c>
       <c r="B151" s="57" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C151" s="42">
         <v>32205</v>
@@ -4491,10 +4530,10 @@
     </row>
     <row r="152" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="58" t="s">
+        <v>167</v>
+      </c>
+      <c r="B152" s="34" t="s">
         <v>168</v>
-      </c>
-      <c r="B152" s="34" t="s">
-        <v>169</v>
       </c>
       <c r="C152" s="59">
         <v>296625</v>
@@ -4511,10 +4550,10 @@
     </row>
     <row r="153" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="60" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B153" s="36" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C153" s="61">
         <v>550875</v>
@@ -4531,10 +4570,10 @@
     </row>
     <row r="154" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="60" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B154" s="36" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C154" s="61">
         <v>889875</v>
@@ -4551,10 +4590,10 @@
     </row>
     <row r="155" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="60" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B155" s="36" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C155" s="61">
         <v>165262.5</v>
@@ -4571,10 +4610,10 @@
     </row>
     <row r="156" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="60" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B156" s="36" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C156" s="61">
         <v>334762.5</v>
@@ -4591,10 +4630,10 @@
     </row>
     <row r="157" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="60" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B157" s="36" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C157" s="61">
         <v>233062.5</v>
@@ -4611,10 +4650,10 @@
     </row>
     <row r="158" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="60" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B158" s="36" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C158" s="61">
         <v>84750</v>
@@ -4631,10 +4670,10 @@
     </row>
     <row r="159" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="60" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B159" s="36" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C159" s="61">
         <v>88987.5</v>
@@ -4651,10 +4690,10 @@
     </row>
     <row r="160" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="60" t="s">
+        <v>176</v>
+      </c>
+      <c r="B160" s="38" t="s">
         <v>177</v>
-      </c>
-      <c r="B160" s="38" t="s">
-        <v>178</v>
       </c>
       <c r="C160" s="61">
         <v>28815</v>
@@ -4671,10 +4710,10 @@
     </row>
     <row r="161" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="60" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B161" s="36" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C161" s="61">
         <v>61867.5</v>
@@ -4691,10 +4730,10 @@
     </row>
     <row r="162" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="60" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B162" s="36" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C162" s="61">
         <v>18221.25</v>
@@ -4711,10 +4750,10 @@
     </row>
     <row r="163" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="60" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B163" s="36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C163" s="61">
         <v>29662.5</v>
@@ -4731,10 +4770,10 @@
     </row>
     <row r="164" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="60" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B164" s="36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C164" s="61">
         <v>50850</v>
@@ -4751,10 +4790,10 @@
     </row>
     <row r="165" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="60" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B165" s="36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C165" s="61">
         <v>12712.5</v>
@@ -4771,10 +4810,10 @@
     </row>
     <row r="166" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="60" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B166" s="36" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C166" s="61">
         <v>22882.5</v>
@@ -4791,10 +4830,10 @@
     </row>
     <row r="167" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="60" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B167" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C167" s="61">
         <v>55087.5</v>
@@ -4811,10 +4850,10 @@
     </row>
     <row r="168" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="60" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B168" s="36" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C168" s="61">
         <v>135600</v>
@@ -4831,10 +4870,10 @@
     </row>
     <row r="169" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="60" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B169" s="36" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C169" s="61">
         <v>80512.5</v>
@@ -4851,10 +4890,10 @@
     </row>
     <row r="170" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" s="60" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B170" s="36" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C170" s="61">
         <v>152550</v>
@@ -4871,10 +4910,10 @@
     </row>
     <row r="171" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="60" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B171" s="36" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C171" s="61">
         <v>12712.5</v>
@@ -4891,10 +4930,10 @@
     </row>
     <row r="172" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="60" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B172" s="36" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C172" s="61">
         <v>18221.25</v>
@@ -4911,10 +4950,10 @@
     </row>
     <row r="173" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="60" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B173" s="36" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C173" s="61">
         <v>19492.5</v>
@@ -4931,10 +4970,10 @@
     </row>
     <row r="174" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="60" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B174" s="36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C174" s="61">
         <v>19492.5</v>
@@ -4951,10 +4990,10 @@
     </row>
     <row r="175" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="60" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B175" s="38" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C175" s="61">
         <v>39408.75</v>
@@ -4971,10 +5010,10 @@
     </row>
     <row r="176" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="60" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B176" s="36" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C176" s="61">
         <v>25425</v>
@@ -4991,10 +5030,10 @@
     </row>
     <row r="177" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="60" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B177" s="38" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C177" s="61">
         <v>84750</v>
@@ -5011,10 +5050,10 @@
     </row>
     <row r="178" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="60" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B178" s="38" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C178" s="61">
         <v>84750</v>
@@ -5031,10 +5070,10 @@
     </row>
     <row r="179" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" s="60" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B179" s="36" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C179" s="61">
         <v>55935</v>
@@ -5051,10 +5090,10 @@
     </row>
     <row r="180" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="60" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B180" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C180" s="61">
         <v>66105</v>
@@ -5071,10 +5110,10 @@
     </row>
     <row r="181" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="60" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B181" s="36" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C181" s="61">
         <v>33900</v>
@@ -5091,10 +5130,10 @@
     </row>
     <row r="182" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="62" t="s">
+        <v>199</v>
+      </c>
+      <c r="B182" s="34" t="s">
         <v>200</v>
-      </c>
-      <c r="B182" s="34" t="s">
-        <v>201</v>
       </c>
       <c r="C182" s="59">
         <v>49155</v>
@@ -5111,10 +5150,10 @@
     </row>
     <row r="183" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="63" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B183" s="36" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C183" s="61">
         <v>13560</v>
@@ -5131,10 +5170,10 @@
     </row>
     <row r="184" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="63" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B184" s="36" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C184" s="61">
         <v>3814</v>

--- a/quotations/management/commands/oblupricelist.xlsx
+++ b/quotations/management/commands/oblupricelist.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhij\PycharmProjects\ObluMerge\quotations\management\commands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392AAA5C-BEA5-4839-A763-C7BA2E5B71E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFCB5030-25D1-48E5-8EC3-B68FFD948D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="206">
   <si>
     <t>Product Category</t>
   </si>
@@ -855,6 +864,9 @@
   </si>
   <si>
     <t>Price</t>
+  </si>
+  <si>
+    <t>Tax Rate2</t>
   </si>
 </sst>
 </file>
@@ -1506,15 +1518,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F184"/>
+  <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1531,10 +1543,13 @@
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -1553,8 +1568,11 @@
       <c r="F2" s="8">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -1573,8 +1591,11 @@
       <c r="F3" s="8">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -1593,8 +1614,11 @@
       <c r="F4" s="8">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
@@ -1613,8 +1637,11 @@
       <c r="F5" s="8">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -1633,8 +1660,11 @@
       <c r="F6" s="8">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -1653,8 +1683,11 @@
       <c r="F7" s="8">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
@@ -1673,8 +1706,11 @@
       <c r="F8" s="8">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>12</v>
       </c>
@@ -1693,8 +1729,11 @@
       <c r="F9" s="12">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>12</v>
       </c>
@@ -1713,8 +1752,11 @@
       <c r="F10" s="17">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
         <v>12</v>
       </c>
@@ -1733,8 +1775,11 @@
       <c r="F11" s="17">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="s">
         <v>16</v>
       </c>
@@ -1753,8 +1798,11 @@
       <c r="F12" s="17">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
         <v>16</v>
       </c>
@@ -1773,8 +1821,11 @@
       <c r="F13" s="17">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
         <v>16</v>
       </c>
@@ -1793,8 +1844,11 @@
       <c r="F14" s="17">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="13" t="s">
         <v>16</v>
       </c>
@@ -1813,8 +1867,11 @@
       <c r="F15" s="17">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="18" t="s">
         <v>21</v>
       </c>
@@ -1833,8 +1890,11 @@
       <c r="F16" s="17">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="18" t="s">
         <v>21</v>
       </c>
@@ -1853,8 +1913,11 @@
       <c r="F17" s="17">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="18" t="s">
         <v>21</v>
       </c>
@@ -1873,8 +1936,11 @@
       <c r="F18" s="17">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="18" t="s">
         <v>21</v>
       </c>
@@ -1893,8 +1959,11 @@
       <c r="F19" s="17">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="18" t="s">
         <v>21</v>
       </c>
@@ -1913,8 +1982,11 @@
       <c r="F20" s="17">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="18" t="s">
         <v>21</v>
       </c>
@@ -1933,8 +2005,11 @@
       <c r="F21" s="17">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="18" t="s">
         <v>21</v>
       </c>
@@ -1953,8 +2028,11 @@
       <c r="F22" s="17">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="18" t="s">
         <v>21</v>
       </c>
@@ -1973,8 +2051,11 @@
       <c r="F23" s="17">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="18" t="s">
         <v>21</v>
       </c>
@@ -1993,8 +2074,11 @@
       <c r="F24" s="17">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="18" t="s">
         <v>21</v>
       </c>
@@ -2013,8 +2097,11 @@
       <c r="F25" s="17">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="18" t="s">
         <v>21</v>
       </c>
@@ -2033,8 +2120,11 @@
       <c r="F26" s="17">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="18" t="s">
         <v>21</v>
       </c>
@@ -2053,8 +2143,11 @@
       <c r="F27" s="17">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="18" t="s">
         <v>21</v>
       </c>
@@ -2073,8 +2166,11 @@
       <c r="F28" s="17">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="18" t="s">
         <v>21</v>
       </c>
@@ -2093,8 +2189,11 @@
       <c r="F29" s="17">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="18" t="s">
         <v>21</v>
       </c>
@@ -2113,8 +2212,11 @@
       <c r="F30" s="17">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="13" t="s">
         <v>21</v>
       </c>
@@ -2133,8 +2235,11 @@
       <c r="F31" s="17">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="13" t="s">
         <v>21</v>
       </c>
@@ -2153,8 +2258,11 @@
       <c r="F32" s="17">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="13" t="s">
         <v>21</v>
       </c>
@@ -2173,8 +2281,11 @@
       <c r="F33" s="17">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="13" t="s">
         <v>21</v>
       </c>
@@ -2193,8 +2304,11 @@
       <c r="F34" s="17">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="18" t="s">
         <v>21</v>
       </c>
@@ -2213,8 +2327,11 @@
       <c r="F35" s="17">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="18" t="s">
         <v>42</v>
       </c>
@@ -2233,8 +2350,11 @@
       <c r="F36" s="17">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="18" t="s">
         <v>42</v>
       </c>
@@ -2253,8 +2373,11 @@
       <c r="F37" s="17">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="18" t="s">
         <v>42</v>
       </c>
@@ -2273,8 +2396,11 @@
       <c r="F38" s="17">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="18" t="s">
         <v>42</v>
       </c>
@@ -2293,8 +2419,11 @@
       <c r="F39" s="17">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="18" t="s">
         <v>42</v>
       </c>
@@ -2313,8 +2442,11 @@
       <c r="F40" s="17">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="18" t="s">
         <v>42</v>
       </c>
@@ -2333,8 +2465,11 @@
       <c r="F41" s="17">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="18" t="s">
         <v>42</v>
       </c>
@@ -2353,8 +2488,11 @@
       <c r="F42" s="17">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="18" t="s">
         <v>42</v>
       </c>
@@ -2373,8 +2511,11 @@
       <c r="F43" s="17">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="18" t="s">
         <v>42</v>
       </c>
@@ -2393,8 +2534,11 @@
       <c r="F44" s="17">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="18" t="s">
         <v>42</v>
       </c>
@@ -2413,8 +2557,11 @@
       <c r="F45" s="17">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="18" t="s">
         <v>42</v>
       </c>
@@ -2433,8 +2580,11 @@
       <c r="F46" s="17">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="18" t="s">
         <v>42</v>
       </c>
@@ -2453,8 +2603,11 @@
       <c r="F47" s="17">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="18" t="s">
         <v>42</v>
       </c>
@@ -2473,8 +2626,11 @@
       <c r="F48" s="17">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="18" t="s">
         <v>42</v>
       </c>
@@ -2493,8 +2649,11 @@
       <c r="F49" s="17">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="18" t="s">
         <v>42</v>
       </c>
@@ -2513,8 +2672,11 @@
       <c r="F50" s="17">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="18" t="s">
         <v>42</v>
       </c>
@@ -2533,8 +2695,11 @@
       <c r="F51" s="17">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="18" t="s">
         <v>42</v>
       </c>
@@ -2553,8 +2718,11 @@
       <c r="F52" s="17">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="18" t="s">
         <v>42</v>
       </c>
@@ -2573,8 +2741,11 @@
       <c r="F53" s="17">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="18" t="s">
         <v>42</v>
       </c>
@@ -2593,8 +2764,11 @@
       <c r="F54" s="17">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="18" t="s">
         <v>42</v>
       </c>
@@ -2613,8 +2787,11 @@
       <c r="F55" s="17">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="18" t="s">
         <v>42</v>
       </c>
@@ -2633,8 +2810,11 @@
       <c r="F56" s="17">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="18" t="s">
         <v>42</v>
       </c>
@@ -2653,8 +2833,11 @@
       <c r="F57" s="17">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="18" t="s">
         <v>42</v>
       </c>
@@ -2673,8 +2856,11 @@
       <c r="F58" s="17">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H58">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="18" t="s">
         <v>42</v>
       </c>
@@ -2693,8 +2879,11 @@
       <c r="F59" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H59">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="18" t="s">
         <v>42</v>
       </c>
@@ -2713,8 +2902,11 @@
       <c r="F60" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H60">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="18" t="s">
         <v>42</v>
       </c>
@@ -2733,8 +2925,11 @@
       <c r="F61" s="17">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H61">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="18" t="s">
         <v>42</v>
       </c>
@@ -2753,8 +2948,11 @@
       <c r="F62" s="17">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H62">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="18" t="s">
         <v>42</v>
       </c>
@@ -2773,8 +2971,11 @@
       <c r="F63" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H63">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="18" t="s">
         <v>42</v>
       </c>
@@ -2793,8 +2994,11 @@
       <c r="F64" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H64">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="18" t="s">
         <v>42</v>
       </c>
@@ -2813,8 +3017,11 @@
       <c r="F65" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H65">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="18" t="s">
         <v>42</v>
       </c>
@@ -2833,8 +3040,11 @@
       <c r="F66" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H66">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="24" t="s">
         <v>73</v>
       </c>
@@ -2853,8 +3063,11 @@
       <c r="F67" s="12">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="18" t="s">
         <v>73</v>
       </c>
@@ -2873,8 +3086,11 @@
       <c r="F68" s="17">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="18" t="s">
         <v>76</v>
       </c>
@@ -2893,8 +3109,11 @@
       <c r="F69" s="17">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="18" t="s">
         <v>76</v>
       </c>
@@ -2913,8 +3132,11 @@
       <c r="F70" s="17">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="18" t="s">
         <v>79</v>
       </c>
@@ -2933,8 +3155,11 @@
       <c r="F71" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H71">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="33" t="s">
         <v>81</v>
       </c>
@@ -2953,8 +3178,11 @@
       <c r="F72" s="12">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H72">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="35" t="s">
         <v>81</v>
       </c>
@@ -2973,8 +3201,11 @@
       <c r="F73" s="17">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H73">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="35" t="s">
         <v>81</v>
       </c>
@@ -2993,8 +3224,11 @@
       <c r="F74" s="17">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H74">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="35" t="s">
         <v>81</v>
       </c>
@@ -3013,8 +3247,11 @@
       <c r="F75" s="17">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H75">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="35" t="s">
         <v>81</v>
       </c>
@@ -3033,8 +3270,11 @@
       <c r="F76" s="17">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H76">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="35" t="s">
         <v>81</v>
       </c>
@@ -3053,8 +3293,11 @@
       <c r="F77" s="17">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H77">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="35" t="s">
         <v>81</v>
       </c>
@@ -3073,8 +3316,11 @@
       <c r="F78" s="17">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H78">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="35" t="s">
         <v>81</v>
       </c>
@@ -3093,8 +3339,11 @@
       <c r="F79" s="17">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H79">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="35" t="s">
         <v>81</v>
       </c>
@@ -3113,8 +3362,11 @@
       <c r="F80" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H80">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="35" t="s">
         <v>81</v>
       </c>
@@ -3133,8 +3385,11 @@
       <c r="F81" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H81">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="35" t="s">
         <v>81</v>
       </c>
@@ -3153,8 +3408,11 @@
       <c r="F82" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H82">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="35" t="s">
         <v>81</v>
       </c>
@@ -3173,8 +3431,11 @@
       <c r="F83" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H83">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="35" t="s">
         <v>81</v>
       </c>
@@ -3193,8 +3454,11 @@
       <c r="F84" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H84">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="35" t="s">
         <v>81</v>
       </c>
@@ -3213,8 +3477,11 @@
       <c r="F85" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H85">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="35" t="s">
         <v>81</v>
       </c>
@@ -3233,8 +3500,11 @@
       <c r="F86" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H86">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="33" t="s">
         <v>97</v>
       </c>
@@ -3253,8 +3523,11 @@
       <c r="F87" s="12">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H87">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="35" t="s">
         <v>97</v>
       </c>
@@ -3273,8 +3546,11 @@
       <c r="F88" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H88">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="35" t="s">
         <v>97</v>
       </c>
@@ -3293,8 +3569,11 @@
       <c r="F89" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H89">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="35" t="s">
         <v>97</v>
       </c>
@@ -3313,8 +3592,11 @@
       <c r="F90" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H90">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="35" t="s">
         <v>97</v>
       </c>
@@ -3333,8 +3615,11 @@
       <c r="F91" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H91">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="35" t="s">
         <v>97</v>
       </c>
@@ -3353,8 +3638,11 @@
       <c r="F92" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H92">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="35" t="s">
         <v>97</v>
       </c>
@@ -3373,8 +3661,11 @@
       <c r="F93" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H93">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="33" t="s">
         <v>105</v>
       </c>
@@ -3393,8 +3684,11 @@
       <c r="F94" s="12">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H94">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="35" t="s">
         <v>105</v>
       </c>
@@ -3413,8 +3707,11 @@
       <c r="F95" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H95">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="35" t="s">
         <v>105</v>
       </c>
@@ -3433,8 +3730,11 @@
       <c r="F96" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H96">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="35" t="s">
         <v>105</v>
       </c>
@@ -3453,8 +3753,11 @@
       <c r="F97" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H97">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="35" t="s">
         <v>105</v>
       </c>
@@ -3473,8 +3776,11 @@
       <c r="F98" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H98">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="35" t="s">
         <v>105</v>
       </c>
@@ -3493,8 +3799,11 @@
       <c r="F99" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H99">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="35" t="s">
         <v>105</v>
       </c>
@@ -3513,8 +3822,11 @@
       <c r="F100" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H100">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="35" t="s">
         <v>105</v>
       </c>
@@ -3533,8 +3845,11 @@
       <c r="F101" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H101">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="35" t="s">
         <v>105</v>
       </c>
@@ -3547,8 +3862,11 @@
       <c r="F102" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H102">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="35" t="s">
         <v>105</v>
       </c>
@@ -3567,8 +3885,11 @@
       <c r="F103" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H103">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="35" t="s">
         <v>105</v>
       </c>
@@ -3587,8 +3908,11 @@
       <c r="F104" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H104">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="35" t="s">
         <v>105</v>
       </c>
@@ -3607,8 +3931,11 @@
       <c r="F105" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H105">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="35" t="s">
         <v>105</v>
       </c>
@@ -3627,8 +3954,11 @@
       <c r="F106" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H106">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="35" t="s">
         <v>105</v>
       </c>
@@ -3647,8 +3977,11 @@
       <c r="F107" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H107">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="35" t="s">
         <v>105</v>
       </c>
@@ -3667,8 +4000,11 @@
       <c r="F108" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H108">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="35" t="s">
         <v>105</v>
       </c>
@@ -3687,8 +4023,11 @@
       <c r="F109" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H109">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="35" t="s">
         <v>122</v>
       </c>
@@ -3707,8 +4046,11 @@
       <c r="F110" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H110">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="33" t="s">
         <v>123</v>
       </c>
@@ -3727,8 +4069,11 @@
       <c r="F111" s="12">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H111">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="35" t="s">
         <v>123</v>
       </c>
@@ -3747,8 +4092,11 @@
       <c r="F112" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H112">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="35" t="s">
         <v>123</v>
       </c>
@@ -3767,8 +4115,11 @@
       <c r="F113" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H113">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="35" t="s">
         <v>123</v>
       </c>
@@ -3787,8 +4138,11 @@
       <c r="F114" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H114">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="35" t="s">
         <v>123</v>
       </c>
@@ -3807,8 +4161,11 @@
       <c r="F115" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H115">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="35" t="s">
         <v>123</v>
       </c>
@@ -3827,8 +4184,11 @@
       <c r="F116" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H116">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="35" t="s">
         <v>123</v>
       </c>
@@ -3847,8 +4207,11 @@
       <c r="F117" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H117">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="35" t="s">
         <v>123</v>
       </c>
@@ -3867,8 +4230,11 @@
       <c r="F118" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H118">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="35" t="s">
         <v>123</v>
       </c>
@@ -3887,8 +4253,11 @@
       <c r="F119" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H119">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="35" t="s">
         <v>123</v>
       </c>
@@ -3907,8 +4276,11 @@
       <c r="F120" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H120">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="35" t="s">
         <v>123</v>
       </c>
@@ -3927,8 +4299,11 @@
       <c r="F121" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H121">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="35" t="s">
         <v>123</v>
       </c>
@@ -3947,8 +4322,11 @@
       <c r="F122" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H122">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="35" t="s">
         <v>123</v>
       </c>
@@ -3967,8 +4345,11 @@
       <c r="F123" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H123">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="33" t="s">
         <v>137</v>
       </c>
@@ -3987,8 +4368,11 @@
       <c r="F124" s="12">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H124">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="35" t="s">
         <v>137</v>
       </c>
@@ -4007,8 +4391,11 @@
       <c r="F125" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H125">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="35" t="s">
         <v>137</v>
       </c>
@@ -4027,8 +4414,11 @@
       <c r="F126" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H126">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="35" t="s">
         <v>137</v>
       </c>
@@ -4047,8 +4437,11 @@
       <c r="F127" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H127">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="35" t="s">
         <v>137</v>
       </c>
@@ -4067,8 +4460,11 @@
       <c r="F128" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H128">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="35" t="s">
         <v>137</v>
       </c>
@@ -4087,8 +4483,11 @@
       <c r="F129" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H129">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="35" t="s">
         <v>137</v>
       </c>
@@ -4107,8 +4506,11 @@
       <c r="F130" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H130">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="35" t="s">
         <v>137</v>
       </c>
@@ -4127,8 +4529,11 @@
       <c r="F131" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H131">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="54" t="s">
         <v>146</v>
       </c>
@@ -4147,8 +4552,11 @@
       <c r="F132" s="12">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H132">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="56" t="s">
         <v>146</v>
       </c>
@@ -4167,8 +4575,11 @@
       <c r="F133" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H133">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="56" t="s">
         <v>146</v>
       </c>
@@ -4187,8 +4598,11 @@
       <c r="F134" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H134">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="56" t="s">
         <v>146</v>
       </c>
@@ -4207,8 +4621,11 @@
       <c r="F135" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H135">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="56" t="s">
         <v>146</v>
       </c>
@@ -4227,8 +4644,11 @@
       <c r="F136" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H136">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="56" t="s">
         <v>146</v>
       </c>
@@ -4247,8 +4667,11 @@
       <c r="F137" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H137">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="56" t="s">
         <v>146</v>
       </c>
@@ -4267,8 +4690,11 @@
       <c r="F138" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H138">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="33" t="s">
         <v>203</v>
       </c>
@@ -4287,8 +4713,11 @@
       <c r="F139" s="12">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H139">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="33" t="s">
         <v>203</v>
       </c>
@@ -4307,8 +4736,11 @@
       <c r="F140" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H140">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="33" t="s">
         <v>203</v>
       </c>
@@ -4327,8 +4759,11 @@
       <c r="F141" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H141">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="33" t="s">
         <v>203</v>
       </c>
@@ -4347,8 +4782,11 @@
       <c r="F142" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H142">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="33" t="s">
         <v>203</v>
       </c>
@@ -4367,8 +4805,11 @@
       <c r="F143" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H143">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="33" t="s">
         <v>203</v>
       </c>
@@ -4387,8 +4828,11 @@
       <c r="F144" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H144">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="33" t="s">
         <v>203</v>
       </c>
@@ -4407,8 +4851,11 @@
       <c r="F145" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H145">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="33" t="s">
         <v>203</v>
       </c>
@@ -4427,8 +4874,11 @@
       <c r="F146" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H146">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="33" t="s">
         <v>203</v>
       </c>
@@ -4447,8 +4897,11 @@
       <c r="F147" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H147">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="33" t="s">
         <v>203</v>
       </c>
@@ -4467,8 +4920,11 @@
       <c r="F148" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H148">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="33" t="s">
         <v>203</v>
       </c>
@@ -4487,8 +4943,11 @@
       <c r="F149" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H149">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="33" t="s">
         <v>203</v>
       </c>
@@ -4507,8 +4966,11 @@
       <c r="F150" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H150">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="33" t="s">
         <v>203</v>
       </c>
@@ -4527,8 +4989,11 @@
       <c r="F151" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H151">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="58" t="s">
         <v>167</v>
       </c>
@@ -4547,8 +5012,11 @@
       <c r="F152" s="12">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H152">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="60" t="s">
         <v>167</v>
       </c>
@@ -4567,8 +5035,11 @@
       <c r="F153" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H153">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="60" t="s">
         <v>167</v>
       </c>
@@ -4587,8 +5058,11 @@
       <c r="F154" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H154">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="60" t="s">
         <v>167</v>
       </c>
@@ -4607,8 +5081,11 @@
       <c r="F155" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H155">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="60" t="s">
         <v>167</v>
       </c>
@@ -4627,8 +5104,11 @@
       <c r="F156" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H156">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="60" t="s">
         <v>167</v>
       </c>
@@ -4647,8 +5127,11 @@
       <c r="F157" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H157">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="60" t="s">
         <v>167</v>
       </c>
@@ -4667,8 +5150,11 @@
       <c r="F158" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H158">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="60" t="s">
         <v>167</v>
       </c>
@@ -4687,8 +5173,11 @@
       <c r="F159" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H159">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="60" t="s">
         <v>176</v>
       </c>
@@ -4707,8 +5196,11 @@
       <c r="F160" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H160">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="60" t="s">
         <v>176</v>
       </c>
@@ -4727,8 +5219,11 @@
       <c r="F161" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H161">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="60" t="s">
         <v>176</v>
       </c>
@@ -4747,8 +5242,11 @@
       <c r="F162" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H162">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="60" t="s">
         <v>176</v>
       </c>
@@ -4767,8 +5265,11 @@
       <c r="F163" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H163">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="60" t="s">
         <v>176</v>
       </c>
@@ -4787,8 +5288,11 @@
       <c r="F164" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H164">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="60" t="s">
         <v>176</v>
       </c>
@@ -4807,8 +5311,11 @@
       <c r="F165" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H165">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="60" t="s">
         <v>176</v>
       </c>
@@ -4827,8 +5334,11 @@
       <c r="F166" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H166">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="60" t="s">
         <v>176</v>
       </c>
@@ -4847,8 +5357,11 @@
       <c r="F167" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H167">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="60" t="s">
         <v>176</v>
       </c>
@@ -4867,8 +5380,11 @@
       <c r="F168" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H168">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="60" t="s">
         <v>176</v>
       </c>
@@ -4887,8 +5403,11 @@
       <c r="F169" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H169">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" s="60" t="s">
         <v>176</v>
       </c>
@@ -4907,8 +5426,11 @@
       <c r="F170" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H170">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="60" t="s">
         <v>167</v>
       </c>
@@ -4927,8 +5449,11 @@
       <c r="F171" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H171">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="60" t="s">
         <v>167</v>
       </c>
@@ -4947,8 +5472,11 @@
       <c r="F172" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H172">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="60" t="s">
         <v>167</v>
       </c>
@@ -4967,8 +5495,11 @@
       <c r="F173" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H173">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="60" t="s">
         <v>167</v>
       </c>
@@ -4987,8 +5518,11 @@
       <c r="F174" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H174">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="60" t="s">
         <v>167</v>
       </c>
@@ -5007,8 +5541,11 @@
       <c r="F175" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H175">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="60" t="s">
         <v>167</v>
       </c>
@@ -5027,8 +5564,11 @@
       <c r="F176" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H176">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="60" t="s">
         <v>167</v>
       </c>
@@ -5047,8 +5587,11 @@
       <c r="F177" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H177">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="60" t="s">
         <v>167</v>
       </c>
@@ -5067,8 +5610,11 @@
       <c r="F178" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H178">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" s="60" t="s">
         <v>167</v>
       </c>
@@ -5087,8 +5633,11 @@
       <c r="F179" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H179">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="60" t="s">
         <v>167</v>
       </c>
@@ -5107,8 +5656,11 @@
       <c r="F180" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H180">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="60" t="s">
         <v>167</v>
       </c>
@@ -5127,8 +5679,11 @@
       <c r="F181" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H181">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="62" t="s">
         <v>199</v>
       </c>
@@ -5147,8 +5702,11 @@
       <c r="F182" s="12">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H182">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="63" t="s">
         <v>199</v>
       </c>
@@ -5167,8 +5725,11 @@
       <c r="F183" s="17">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H183">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="63" t="s">
         <v>199</v>
       </c>
@@ -5186,6 +5747,9 @@
       </c>
       <c r="F184" s="17">
         <v>0.18</v>
+      </c>
+      <c r="H184">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
